--- a/PresupuestoEmilianScurtu.xlsx
+++ b/PresupuestoEmilianScurtu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Presupuesto</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Senseair S8 LT</t>
+  </si>
+  <si>
+    <t>Antena Wifi Wemos D1 mini Pro</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -685,7 +688,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -765,18 +768,120 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -786,116 +891,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1182,7 +1194,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,91 +1208,91 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="68">
         <v>643354395</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="53">
         <v>957379710</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1288,18 +1300,18 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="40">
+      <c r="B8" s="57"/>
+      <c r="C8" s="58">
         <v>44280</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -1312,12 +1324,12 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1332,144 +1344,164 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
       <c r="F11" s="14">
         <v>0</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="27">
         <v>8.99</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="28">
         <v>8.99</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="13">
         <v>1</v>
       </c>
       <c r="F12" s="14">
         <v>0</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="27">
         <v>7.49</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="28">
         <v>7.49</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
+      <c r="A13" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="13">
         <v>1</v>
       </c>
       <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="27">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H13" s="28">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27">
         <v>45.09</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H14" s="28">
         <v>45.09</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="52" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="64">
-        <f>SUM(H11:H13)</f>
-        <v>61.570000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="65"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="29">
+        <f>SUM(H11:H14)</f>
+        <v>66.460000000000008</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="66">
-        <f>SUM(H11:H13,H15)</f>
-        <v>61.570000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="31">
+        <f>SUM(H11:H14,H16)</f>
+        <v>66.460000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="57" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+    </row>
     <row r="41" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
+  <mergeCells count="22">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
